--- a/AI/scratch data.xlsx
+++ b/AI/scratch data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Android Apps\DotMatch\AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repos\DotMatch\AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -247,28 +247,28 @@
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35399999999999998</c:v>
+                  <c:v>0.3054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78299999999999992</c:v>
+                  <c:v>0.3483</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3620000000000003</c:v>
+                  <c:v>0.40619999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1426482638305839</c:v>
+                  <c:v>0.64538921410462247</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3470841114448548</c:v>
+                  <c:v>0.85241712998914054</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5035099696434289</c:v>
+                  <c:v>0.9806990403913296</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.605366979032711</c:v>
+                  <c:v>1.0551496840432226</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7247156922059559</c:v>
+                  <c:v>1.135579738358742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -283,11 +283,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="306390168"/>
-        <c:axId val="306396832"/>
+        <c:axId val="365428584"/>
+        <c:axId val="365434856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="306390168"/>
+        <c:axId val="365428584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -400,12 +400,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306396832"/>
+        <c:crossAx val="365434856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="306396832"/>
+        <c:axId val="365434856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -522,7 +522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306390168"/>
+        <c:crossAx val="365428584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1425,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f>-0.0003*A1^3+0.012*A1^2-0.0417*A1+0.3</f>
+        <f>-0.00003*A1^3+0.0012*A1^2-0.00417*A1+0.3</f>
         <v>0.3</v>
       </c>
       <c r="E1" t="s">
@@ -1456,8 +1456,8 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B4" si="0">-0.0003*A2^3+0.012*A2^2-0.0417*A2+0.3</f>
-        <v>0.35399999999999998</v>
+        <f t="shared" ref="B2:B4" si="0">-0.00003*A2^3+0.0012*A2^2-0.00417*A2+0.3</f>
+        <v>0.3054</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>0.78299999999999992</v>
+        <v>0.3483</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>1.3620000000000003</v>
+        <v>0.40619999999999995</v>
       </c>
       <c r="H4" t="s">
         <v>1</v>
@@ -1501,8 +1501,12 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <f>1.5*LN(LN(A6))+0.3891</f>
-        <v>2.1426482638305839</v>
+        <f>0.5*LN(LN(0.1*A6))+0.6891</f>
+        <v>0.64538921410462247</v>
+      </c>
+      <c r="C6">
+        <f>60*1/B6</f>
+        <v>92.967156389870425</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1517,8 +1521,8 @@
         <v>40</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B6:B10" si="2">1.5*LN(LN(A7))+0.3891</f>
-        <v>2.3470841114448548</v>
+        <f t="shared" ref="B7:B10" si="2">0.5*LN(LN(0.1*A7))+0.6891</f>
+        <v>0.85241712998914054</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -1534,7 +1538,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="2"/>
-        <v>2.5035099696434289</v>
+        <v>0.9806990403913296</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -1550,7 +1554,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="2"/>
-        <v>2.605366979032711</v>
+        <v>1.0551496840432226</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1559,7 +1563,19 @@
       </c>
       <c r="B10">
         <f t="shared" si="2"/>
-        <v>2.7247156922059559</v>
+        <v>1.135579738358742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <f>1/B6</f>
+        <v>1.5494526064978402</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <f>LN(LN(25))</f>
+        <v>1.1690321758870559</v>
       </c>
     </row>
   </sheetData>
